--- a/Tests/Validation/Wheat/data/FAR SAC W22-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W22-03-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR SAC W22-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W22-03-2.xlsx
@@ -503,12 +503,12 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W22-03-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W22-03-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +507,7 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44712</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -701,7 +702,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -736,7 +737,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -771,7 +772,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -806,7 +807,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -845,7 +846,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvScepter</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -912,7 +913,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44712</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -947,7 +948,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -982,7 +983,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1017,7 +1018,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1052,7 +1053,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1087,7 +1088,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1122,7 +1123,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1157,7 +1158,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1196,7 +1197,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvRockstar</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1264,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44712</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1298,7 +1299,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1333,7 +1334,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1368,7 +1369,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1403,7 +1404,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1438,7 +1439,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1473,7 +1474,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1508,7 +1509,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1543,7 +1544,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1578,7 +1579,7 @@
           <t>FAR SAC W22-03-2FungicideFullN225CvAccroc</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1645,7 +1646,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44712</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1680,7 +1681,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1715,7 +1716,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1750,7 +1751,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1785,7 +1786,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1820,7 +1821,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1855,7 +1856,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1890,7 +1891,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1929,7 +1930,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvScepter</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1996,7 +1997,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44712</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2031,7 +2032,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2066,7 +2067,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2101,7 +2102,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2136,7 +2137,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2171,7 +2172,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2206,7 +2207,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2241,7 +2242,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2280,7 +2281,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvRockstar</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2347,7 +2348,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44712</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2382,7 +2383,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2417,7 +2418,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2452,7 +2453,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2487,7 +2488,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2522,7 +2523,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2557,7 +2558,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2592,7 +2593,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2627,7 +2628,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44874</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2662,7 +2663,7 @@
           <t>FAR SAC W22-03-2FungicideFullN150CvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2729,7 +2730,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2764,7 +2765,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2799,7 +2800,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2834,7 +2835,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2869,7 +2870,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2904,7 +2905,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2939,7 +2940,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2974,7 +2975,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvScepter</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3041,7 +3042,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3076,7 +3077,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3111,7 +3112,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3146,7 +3147,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3181,7 +3182,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3216,7 +3217,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3251,7 +3252,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3286,7 +3287,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvAccroc</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3353,7 +3354,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3388,7 +3389,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3423,7 +3424,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3458,7 +3459,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3493,7 +3494,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3528,7 +3529,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3563,7 +3564,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3598,7 +3599,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN225CvRockstar</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3665,7 +3666,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3700,7 +3701,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3735,7 +3736,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3770,7 +3771,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3805,7 +3806,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3840,7 +3841,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3875,7 +3876,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3910,7 +3911,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvRockstar</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3977,7 +3978,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4012,7 +4013,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4047,7 +4048,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4082,7 +4083,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4117,7 +4118,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4152,7 +4153,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4187,7 +4188,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4222,7 +4223,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvScepter</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4289,7 +4290,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44713</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4324,7 +4325,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44733</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4359,7 +4360,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44747</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4394,7 +4395,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44763</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4429,7 +4430,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44782</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4464,7 +4465,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44799</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4499,7 +4500,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44845</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4534,7 +4535,7 @@
           <t>FAR SAC W22-03-2FungicideSingleN150CvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44931</v>
       </c>
       <c r="C105" t="inlineStr">
